--- a/Tools/excel2json/excel/TaskDefine.xlsx
+++ b/Tools/excel2json/excel/TaskDefine.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12960"/>
+    <workbookView windowHeight="18360"/>
   </bookViews>
   <sheets>
     <sheet name="TaskDefine" sheetId="1" r:id="rId1"/>
@@ -26,34 +26,214 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>大凉龙雀</author>
+  </authors>
+  <commentList>
+    <comment ref="B3" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>大凉龙雀:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+GAME_TASK_TYPE_MAIN_STORY	= 1;
+GAME_TASK_TYPE_SIDE_STORY	= 2;
+GAME_TASK_TYPE_COMMON	= 3;
+GAME_TASK_TYPE_DAILY	= 4;
+GAME_TASK_TYPE_GUILD	= 5;
+GAME_TASK_TYPE_FACTION	= 6;
+GAME_TASK_TYPE_HIDE	= 7;
+GAME_TASK_TYPE_CYCLE	= 8;
+GAME_TASK_TYPE_ACHIEVEMENT	= 9;
+GAME_TASK_TYPE_CUSTOM	= 10;</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C3" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>大凉龙雀:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+（非链任务留空）</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D3" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>大凉龙雀:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+（从1开始）</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H3" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>大凉龙雀:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+分号分隔多个条件，格式：类型:参数1,参数2
+例如：
+# 示例条件类型及参数
+"LEVEL:20"            # 玩家等级≥20
+"TASK:1000"           # 已完成任务1000
+"ITEM:1001,5"         # 拥有物品1001且数量≥5
+"GUILD_RANK:3"        # 公会职位≥3级
+"TIME:2024-01-01"    # 现实时间≥2024-01-01	</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I3" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>大凉龙雀:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+分号分隔多个目标，格式：类型;参数;进度类型
+# 示例：KILL_MONSTER;201,5
+# 目标类型：击杀怪物（参数：怪物ID=201,需要数量=5）
+# 进度类型：叠加累计（ADD）	
+常用：
+KILL_MONSTER	201,5	击杀ID201怪物5只
+COLLECT_ITEM	1001,10	收集ID1001物品10个
+TALK_NPC	301	与ID301的NPC对话
+EXPLORE_AREA	501	探索区域ID501</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J3" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>大凉龙雀:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+分号分隔物品，格式：
+Item:物品ID,数量
+Skill:技能id	</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="26">
-  <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>Task_chain_id</t>
-  </si>
-  <si>
-    <t>Task_sub_id</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="60">
+  <si>
+    <t>Task_id</t>
+  </si>
+  <si>
+    <t>Task_type</t>
+  </si>
+  <si>
+    <t>Chain_id</t>
+  </si>
+  <si>
+    <t>Sub_id</t>
+  </si>
+  <si>
+    <t>Title</t>
+  </si>
+  <si>
+    <t>Desc</t>
   </si>
   <si>
     <t>Icon</t>
   </si>
   <si>
-    <t>Desc</t>
-  </si>
-  <si>
-    <t>Task_target</t>
-  </si>
-  <si>
-    <t>Target_amount</t>
-  </si>
-  <si>
-    <t>Award</t>
-  </si>
-  <si>
-    <t>Open_chain</t>
+    <t>Pre_conditions</t>
+  </si>
+  <si>
+    <t>Target_conditions</t>
+  </si>
+  <si>
+    <t>Reward_items</t>
+  </si>
+  <si>
+    <t>Next_chains</t>
+  </si>
+  <si>
+    <t>Daily_refresh_time</t>
+  </si>
+  <si>
+    <t>Expire_time</t>
   </si>
   <si>
     <t>int</t>
@@ -65,46 +245,138 @@
     <t>int[]</t>
   </si>
   <si>
-    <t>默认Id</t>
-  </si>
-  <si>
-    <t>链id</t>
-  </si>
-  <si>
-    <t>任务子id</t>
+    <t>任务id</t>
+  </si>
+  <si>
+    <t>任务类型</t>
+  </si>
+  <si>
+    <t xml:space="preserve">所属任务链ID
+ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">任务链中的子序号
+</t>
+  </si>
+  <si>
+    <t>任务标题</t>
+  </si>
+  <si>
+    <t>任务描述</t>
   </si>
   <si>
     <t>任务图标</t>
   </si>
   <si>
-    <t>描述</t>
-  </si>
-  <si>
-    <t>任务目标</t>
-  </si>
-  <si>
-    <t>目标数量</t>
+    <t>任务解锁条件</t>
+  </si>
+  <si>
+    <t>任务完成条件</t>
   </si>
   <si>
     <t>奖励</t>
   </si>
   <si>
-    <t>打开的支线链</t>
-  </si>
-  <si>
-    <t>hello</t>
-  </si>
-  <si>
-    <t>哈基米</t>
-  </si>
-  <si>
-    <t>GetItem</t>
-  </si>
-  <si>
-    <t>{“gold” : 1000}</t>
-  </si>
-  <si>
-    <t>[2, 3]</t>
+    <t>后续开启的支线链</t>
+  </si>
+  <si>
+    <t>日常任务刷新时间（格式：HH:MM）</t>
+  </si>
+  <si>
+    <t>限时任务过期时间（格式：YYYY-MM-DD HH:MM:SS）</t>
+  </si>
+  <si>
+    <t>初始任务</t>
+  </si>
+  <si>
+    <t>角色创建之后的第一个任务</t>
+  </si>
+  <si>
+    <t>Texture/Task/Default.png</t>
+  </si>
+  <si>
+    <t>EnterGame:1;</t>
+  </si>
+  <si>
+    <t>[2]</t>
+  </si>
+  <si>
+    <t>这里是？</t>
+  </si>
+  <si>
+    <t>探索一下周围，弄清楚这里到底是什么地方？</t>
+  </si>
+  <si>
+    <t>Level:1</t>
+  </si>
+  <si>
+    <t>ReachPosition:100,1,100;</t>
+  </si>
+  <si>
+    <t>奇怪的老者</t>
+  </si>
+  <si>
+    <t>与老者对话，询问此处相关的信息。</t>
+  </si>
+  <si>
+    <t>Task:1</t>
+  </si>
+  <si>
+    <t>TalkNpc:100;</t>
+  </si>
+  <si>
+    <t>Skills:1001</t>
+  </si>
+  <si>
+    <t>练习拳法</t>
+  </si>
+  <si>
+    <t>熟悉基础的战斗，为打败怪物做准备。</t>
+  </si>
+  <si>
+    <t>Task:2</t>
+  </si>
+  <si>
+    <t>CastSkill:1001=2;CastSkill:1002=2;</t>
+  </si>
+  <si>
+    <t>寻找哥布林踪迹</t>
+  </si>
+  <si>
+    <t>寻找祸害村子的哥布林巢穴。</t>
+  </si>
+  <si>
+    <t>Task:3</t>
+  </si>
+  <si>
+    <t>ReachPosition:200,1,100;</t>
+  </si>
+  <si>
+    <t>讨伐</t>
+  </si>
+  <si>
+    <t>击杀哥布林巢穴中全部的哥布林，一个不留。</t>
+  </si>
+  <si>
+    <t>Task:4</t>
+  </si>
+  <si>
+    <t>KillMonster:1001=5;KillMonster:1002;</t>
+  </si>
+  <si>
+    <t>Item:1</t>
+  </si>
+  <si>
+    <t>寻找此方世界的出路</t>
+  </si>
+  <si>
+    <t>寻找这个世界奇怪的地方</t>
+  </si>
+  <si>
+    <t>Level:10</t>
+  </si>
+  <si>
+    <t>ReachPosition:200,1,200;</t>
   </si>
 </sst>
 </file>
@@ -117,7 +389,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -134,6 +406,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="10.5"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -277,8 +557,19 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="36">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -293,19 +584,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
+        <fgColor theme="9" tint="0.8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -623,64 +902,70 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -689,10 +974,10 @@
     <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -701,10 +986,10 @@
     <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -713,10 +998,10 @@
     <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -725,10 +1010,10 @@
     <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -737,23 +1022,17 @@
     <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -761,32 +1040,20 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1107,27 +1374,31 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I14"/>
+  <dimension ref="A1:M10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="9" style="8"/>
-    <col min="2" max="2" width="29.8833333333333" style="8" customWidth="1"/>
-    <col min="3" max="3" width="26.5166666666667" style="8" customWidth="1"/>
-    <col min="4" max="4" width="25.2083333333333" style="8" customWidth="1"/>
-    <col min="5" max="5" width="20.2166666666667" style="7" customWidth="1"/>
-    <col min="6" max="6" width="27.4916666666667" style="7" customWidth="1"/>
-    <col min="7" max="7" width="19.125" style="7" customWidth="1"/>
-    <col min="8" max="8" width="20.9666666666667" style="7" customWidth="1"/>
-    <col min="9" max="9" width="20.7583333333333" style="8" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="8"/>
+    <col min="1" max="1" width="9" style="4"/>
+    <col min="2" max="2" width="21.1833333333333" style="4" customWidth="1"/>
+    <col min="3" max="3" width="16.2916666666667" style="4" customWidth="1"/>
+    <col min="4" max="4" width="17.6083333333333" style="4" customWidth="1"/>
+    <col min="5" max="5" width="20.4333333333333" style="4" customWidth="1"/>
+    <col min="6" max="6" width="38.15" style="4" customWidth="1"/>
+    <col min="7" max="7" width="25.2083333333333" style="4" customWidth="1"/>
+    <col min="8" max="8" width="32.0583333333333" style="4" customWidth="1"/>
+    <col min="9" max="9" width="39.8833333333333" style="4" customWidth="1"/>
+    <col min="10" max="10" width="20.7583333333333" style="4" customWidth="1"/>
+    <col min="11" max="11" width="17.5" style="4" customWidth="1"/>
+    <col min="12" max="12" width="30.7583333333333" style="4" customWidth="1"/>
+    <col min="13" max="13" width="22.4916666666667" style="4" customWidth="1"/>
+    <col min="14" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" customHeight="1" spans="1:9">
+    <row r="1" s="1" customFormat="1" customHeight="1" spans="1:13">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1155,67 +1426,104 @@
       <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="2" s="1" customFormat="1" customHeight="1" spans="1:9">
+    <row r="2" s="1" customFormat="1" customHeight="1" spans="1:13">
       <c r="A2" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
-    <row r="3" s="2" customFormat="1" ht="59" customHeight="1" spans="1:9">
+    <row r="3" s="2" customFormat="1" ht="59" customHeight="1" spans="1:13">
       <c r="A3" s="2" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>19</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>20</v>
+        <v>24</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
-    <row r="4" s="3" customFormat="1" customHeight="1" spans="1:9">
+    <row r="4" s="3" customFormat="1" customHeight="1" spans="1:11">
       <c r="A4" s="3">
+        <f t="shared" ref="A4:A9" si="0">ROW()-3</f>
         <v>1</v>
       </c>
       <c r="B4" s="3">
@@ -1224,246 +1532,214 @@
       <c r="C4" s="3">
         <v>1</v>
       </c>
-      <c r="D4" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E4" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="F4" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="G4" s="9">
+      <c r="D4" s="3">
         <v>1</v>
       </c>
-      <c r="H4" s="9" t="s">
-        <v>24</v>
+      <c r="E4" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>31</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>25</v>
+        <v>32</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>33</v>
       </c>
     </row>
-    <row r="5" s="3" customFormat="1" customHeight="1" spans="1:8">
+    <row r="5" s="3" customFormat="1" customHeight="1" spans="1:9">
       <c r="A5" s="3">
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="B5" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C5" s="3">
         <v>2</v>
       </c>
-      <c r="D5" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E5" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="F5" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="G5" s="9">
+      <c r="D5" s="3">
         <v>1</v>
       </c>
-      <c r="H5" s="9" t="s">
-        <v>24</v>
+      <c r="E5" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="I5" s="7" t="s">
+        <v>37</v>
       </c>
     </row>
-    <row r="6" s="3" customFormat="1" customHeight="1" spans="1:8">
+    <row r="6" s="3" customFormat="1" customHeight="1" spans="1:10">
       <c r="A6" s="3">
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="B6" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C6" s="3">
+        <v>2</v>
+      </c>
+      <c r="D6" s="3">
+        <v>2</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" s="3" customFormat="1" customHeight="1" spans="1:9">
+      <c r="A7" s="3">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B7" s="3">
+        <v>2</v>
+      </c>
+      <c r="C7" s="3">
+        <v>2</v>
+      </c>
+      <c r="D7" s="3">
         <v>3</v>
       </c>
-      <c r="D6" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="F6" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="G6" s="9">
-        <v>1</v>
-      </c>
-      <c r="H6" s="9" t="s">
-        <v>24</v>
+      <c r="E7" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>46</v>
       </c>
     </row>
-    <row r="7" s="3" customFormat="1" customHeight="1" spans="1:8">
-      <c r="A7" s="3">
+    <row r="8" s="3" customFormat="1" customHeight="1" spans="1:9">
+      <c r="A8" s="3">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B8" s="3">
+        <v>2</v>
+      </c>
+      <c r="C8" s="3">
+        <v>2</v>
+      </c>
+      <c r="D8" s="3">
         <v>4</v>
       </c>
-      <c r="B7" s="3">
-        <v>1</v>
-      </c>
-      <c r="C7" s="3">
-        <v>4</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E7" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="F7" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="G7" s="9">
-        <v>1</v>
-      </c>
-      <c r="H7" s="9" t="s">
-        <v>24</v>
+      <c r="E8" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>50</v>
       </c>
     </row>
-    <row r="8" s="3" customFormat="1" customHeight="1" spans="1:8">
-      <c r="A8" s="3">
+    <row r="9" s="3" customFormat="1" customHeight="1" spans="1:10">
+      <c r="A9" s="3">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B9" s="3">
+        <v>2</v>
+      </c>
+      <c r="C9" s="3">
+        <v>2</v>
+      </c>
+      <c r="D9" s="3">
         <v>5</v>
       </c>
-      <c r="B8" s="3">
-        <v>1</v>
-      </c>
-      <c r="C8" s="3">
-        <v>5</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E8" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="F8" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="G8" s="9">
-        <v>1</v>
-      </c>
-      <c r="H8" s="9" t="s">
-        <v>24</v>
+      <c r="E9" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>55</v>
       </c>
     </row>
-    <row r="9" s="4" customFormat="1" customHeight="1" spans="1:8">
-      <c r="A9" s="4">
-        <v>6</v>
-      </c>
-      <c r="B9" s="3">
-        <v>1</v>
-      </c>
-      <c r="C9" s="4">
-        <v>6</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E9" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="F9" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="G9" s="4">
-        <v>1</v>
-      </c>
-      <c r="H9" s="9" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="10" s="4" customFormat="1" customHeight="1" spans="1:8">
+    <row r="10" customHeight="1" spans="1:9">
       <c r="A10" s="4">
         <v>7</v>
       </c>
-      <c r="B10" s="3">
+      <c r="B10" s="4">
         <v>1</v>
       </c>
       <c r="C10" s="4">
-        <v>7</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E10" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="F10" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="G10" s="9">
         <v>1</v>
       </c>
-      <c r="H10" s="9" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="11" s="5" customFormat="1" customHeight="1" spans="1:8">
-      <c r="A11" s="5">
-        <v>8</v>
-      </c>
-      <c r="B11" s="10">
+      <c r="D10" s="4">
         <v>2</v>
       </c>
-      <c r="C11" s="10">
-        <v>1</v>
-      </c>
-      <c r="D11" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="G11" s="5">
-        <v>1</v>
-      </c>
-      <c r="H11" s="5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="12" s="6" customFormat="1" customHeight="1" spans="1:8">
-      <c r="A12" s="6">
-        <v>9</v>
-      </c>
-      <c r="B12" s="11">
-        <v>3</v>
-      </c>
-      <c r="C12" s="11">
-        <v>1</v>
-      </c>
-      <c r="D12" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="F12" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="G12" s="6">
-        <v>1</v>
-      </c>
-      <c r="H12" s="6" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" s="7" customFormat="1" customHeight="1" spans="2:4">
-      <c r="B13" s="8"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
-    </row>
-    <row r="14" s="7" customFormat="1" customHeight="1" spans="2:4">
-      <c r="B14" s="8"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
+      <c r="E10" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="I10" s="4" t="s">
+        <v>59</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Tools/excel2json/excel/TaskDefine.xlsx
+++ b/Tools/excel2json/excel/TaskDefine.xlsx
@@ -195,7 +195,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="66">
   <si>
     <t>Task_id</t>
   </si>
@@ -298,7 +298,7 @@
     <t>EnterGame:1;</t>
   </si>
   <si>
-    <t>[2]</t>
+    <t>[2,3]</t>
   </si>
   <si>
     <t>这里是？</t>
@@ -319,9 +319,6 @@
     <t>与老者对话，询问此处相关的信息。</t>
   </si>
   <si>
-    <t>Task:1</t>
-  </si>
-  <si>
     <t>TalkNpc:100;</t>
   </si>
   <si>
@@ -334,9 +331,6 @@
     <t>熟悉基础的战斗，为打败怪物做准备。</t>
   </si>
   <si>
-    <t>Task:2</t>
-  </si>
-  <si>
     <t>CastSkill:1001=2;CastSkill:1002=2;</t>
   </si>
   <si>
@@ -346,9 +340,6 @@
     <t>寻找祸害村子的哥布林巢穴。</t>
   </si>
   <si>
-    <t>Task:3</t>
-  </si>
-  <si>
     <t>ReachPosition:200,1,100;</t>
   </si>
   <si>
@@ -358,15 +349,45 @@
     <t>击杀哥布林巢穴中全部的哥布林，一个不留。</t>
   </si>
   <si>
-    <t>Task:4</t>
-  </si>
-  <si>
     <t>KillMonster:1001=5;KillMonster:1002;</t>
   </si>
   <si>
     <t>Item:1</t>
   </si>
   <si>
+    <t>奇怪的书籍</t>
+  </si>
+  <si>
+    <t>初来到小南梁界的小愣头青偶然发现路边的一本小书籍</t>
+  </si>
+  <si>
+    <t>Task:3;Level:2</t>
+  </si>
+  <si>
+    <t>ReachPosition:200,1,200;</t>
+  </si>
+  <si>
+    <t>向老者询问</t>
+  </si>
+  <si>
+    <t>你打开书籍看了看，发现并不是汉字，你决定向刚刚遇到的老者询问。</t>
+  </si>
+  <si>
+    <t>ReachPosition:100,1,100;TalkNpc:101;</t>
+  </si>
+  <si>
+    <t>Item:1000</t>
+  </si>
+  <si>
+    <t>学习并且使用巨人化技能</t>
+  </si>
+  <si>
+    <t>根据老者所说，这是一本功法秘籍，老者已经帮我们翻译了，我们可以直接学习</t>
+  </si>
+  <si>
+    <t>CastSkill:1001=2;</t>
+  </si>
+  <si>
     <t>寻找此方世界的出路</t>
   </si>
   <si>
@@ -374,9 +395,6 @@
   </si>
   <si>
     <t>Level:10</t>
-  </si>
-  <si>
-    <t>ReachPosition:200,1,200;</t>
   </si>
 </sst>
 </file>
@@ -1374,10 +1392,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M10"/>
+  <dimension ref="A1:M13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" customHeight="1"/>
@@ -1604,14 +1622,12 @@
       <c r="G6" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="H6" s="3" t="s">
+      <c r="H6" s="3"/>
+      <c r="I6" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="I6" s="3" t="s">
+      <c r="J6" s="3" t="s">
         <v>41</v>
-      </c>
-      <c r="J6" s="3" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="7" s="3" customFormat="1" customHeight="1" spans="1:9">
@@ -1629,19 +1645,17 @@
         <v>3</v>
       </c>
       <c r="E7" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F7" s="3" t="s">
         <v>43</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>44</v>
       </c>
       <c r="G7" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="H7" s="3" t="s">
-        <v>45</v>
-      </c>
+      <c r="H7" s="3"/>
       <c r="I7" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="8" s="3" customFormat="1" customHeight="1" spans="1:9">
@@ -1659,19 +1673,17 @@
         <v>4</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G8" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="H8" s="3" t="s">
-        <v>49</v>
-      </c>
+      <c r="H8" s="3"/>
       <c r="I8" s="3" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="9" s="3" customFormat="1" customHeight="1" spans="1:10">
@@ -1689,51 +1701,134 @@
         <v>5</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="G9" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="H9" s="3" t="s">
+      <c r="H9" s="3"/>
+      <c r="I9" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="10" s="3" customFormat="1" customHeight="1" spans="1:9">
+      <c r="A10" s="3">
+        <v>7</v>
+      </c>
+      <c r="B10" s="3">
+        <v>2</v>
+      </c>
+      <c r="C10" s="3">
+        <v>3</v>
+      </c>
+      <c r="D10" s="3">
+        <v>1</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="F10" s="3" t="s">
         <v>53</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="J9" s="3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="10" customHeight="1" spans="1:9">
-      <c r="A10" s="4">
-        <v>7</v>
-      </c>
-      <c r="B10" s="4">
-        <v>1</v>
-      </c>
-      <c r="C10" s="4">
-        <v>1</v>
-      </c>
-      <c r="D10" s="4">
-        <v>2</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>57</v>
       </c>
       <c r="G10" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="H10" s="4" t="s">
+      <c r="H10" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="11" s="3" customFormat="1" customHeight="1" spans="1:10">
+      <c r="A11" s="3">
+        <v>8</v>
+      </c>
+      <c r="B11" s="3">
+        <v>2</v>
+      </c>
+      <c r="C11" s="3">
+        <v>3</v>
+      </c>
+      <c r="D11" s="3">
+        <v>2</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="I10" s="4" t="s">
+      <c r="J11" s="3" t="s">
         <v>59</v>
+      </c>
+    </row>
+    <row r="12" s="3" customFormat="1" customHeight="1" spans="1:9">
+      <c r="A12" s="3">
+        <v>9</v>
+      </c>
+      <c r="B12" s="3">
+        <v>2</v>
+      </c>
+      <c r="C12" s="3">
+        <v>3</v>
+      </c>
+      <c r="D12" s="3">
+        <v>3</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="13" customHeight="1" spans="1:9">
+      <c r="A13" s="4">
+        <v>10</v>
+      </c>
+      <c r="B13" s="4">
+        <v>1</v>
+      </c>
+      <c r="C13" s="4">
+        <v>1</v>
+      </c>
+      <c r="D13" s="4">
+        <v>2</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="I13" s="4" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>

--- a/Tools/excel2json/excel/TaskDefine.xlsx
+++ b/Tools/excel2json/excel/TaskDefine.xlsx
@@ -322,7 +322,7 @@
     <t>TalkNpc:100;</t>
   </si>
   <si>
-    <t>Skills:1001</t>
+    <t>SkillChain:1001;Skill:1001</t>
   </si>
   <si>
     <t>练习拳法</t>
@@ -576,12 +576,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1395,7 +1395,7 @@
   <dimension ref="A1:M13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" customHeight="1"/>
@@ -1622,7 +1622,6 @@
       <c r="G6" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="H6" s="3"/>
       <c r="I6" s="3" t="s">
         <v>40</v>
       </c>
@@ -1653,7 +1652,6 @@
       <c r="G7" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="H7" s="3"/>
       <c r="I7" s="3" t="s">
         <v>44</v>
       </c>
@@ -1681,7 +1679,6 @@
       <c r="G8" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="H8" s="3"/>
       <c r="I8" s="3" t="s">
         <v>47</v>
       </c>
@@ -1709,7 +1706,6 @@
       <c r="G9" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="H9" s="3"/>
       <c r="I9" s="3" t="s">
         <v>50</v>
       </c>
@@ -1768,7 +1764,6 @@
       <c r="G11" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="H11" s="3"/>
       <c r="I11" s="3" t="s">
         <v>58</v>
       </c>

--- a/Tools/excel2json/excel/TaskDefine.xlsx
+++ b/Tools/excel2json/excel/TaskDefine.xlsx
@@ -195,7 +195,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="67">
   <si>
     <t>Task_id</t>
   </si>
@@ -313,6 +313,9 @@
     <t>ReachPosition:100,1,100;</t>
   </si>
   <si>
+    <t>Item:1005,1</t>
+  </si>
+  <si>
     <t>奇怪的老者</t>
   </si>
   <si>
@@ -352,7 +355,7 @@
     <t>KillMonster:1001=5;KillMonster:1002;</t>
   </si>
   <si>
-    <t>Item:1</t>
+    <t>Item:1,1</t>
   </si>
   <si>
     <t>奇怪的书籍</t>
@@ -576,12 +579,12 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1395,7 +1398,7 @@
   <dimension ref="A1:M13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+      <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" customHeight="1"/>
@@ -1569,7 +1572,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="5" s="3" customFormat="1" customHeight="1" spans="1:9">
+    <row r="5" s="3" customFormat="1" ht="24" customHeight="1" spans="1:10">
       <c r="A5" s="3">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -1597,6 +1600,9 @@
       </c>
       <c r="I5" s="7" t="s">
         <v>37</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="6" s="3" customFormat="1" customHeight="1" spans="1:10">
@@ -1614,19 +1620,19 @@
         <v>2</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G6" s="3" t="s">
         <v>31</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7" s="3" customFormat="1" customHeight="1" spans="1:9">
@@ -1644,16 +1650,16 @@
         <v>3</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G7" s="3" t="s">
         <v>31</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="8" s="3" customFormat="1" customHeight="1" spans="1:9">
@@ -1671,16 +1677,16 @@
         <v>4</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G8" s="3" t="s">
         <v>31</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9" s="3" customFormat="1" customHeight="1" spans="1:10">
@@ -1698,19 +1704,19 @@
         <v>5</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G9" s="3" t="s">
         <v>31</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="10" s="3" customFormat="1" customHeight="1" spans="1:9">
@@ -1727,19 +1733,19 @@
         <v>1</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G10" s="3" t="s">
         <v>31</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="11" s="3" customFormat="1" customHeight="1" spans="1:10">
@@ -1756,19 +1762,19 @@
         <v>2</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G11" s="3" t="s">
         <v>31</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="12" s="3" customFormat="1" customHeight="1" spans="1:9">
@@ -1785,16 +1791,16 @@
         <v>3</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G12" s="3" t="s">
         <v>31</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="13" customHeight="1" spans="1:9">
@@ -1811,19 +1817,19 @@
         <v>2</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G13" s="3" t="s">
         <v>31</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="I13" s="4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
